--- a/Labs/Lab 3 - Measurement of the Bandgap in Germanium/Band-Gap.xlsx
+++ b/Labs/Lab 3 - Measurement of the Bandgap in Germanium/Band-Gap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC7097-F92A-4536-9111-27F83A9A797E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204E6F35-A6A7-41F2-B7E3-E580374EECD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1785" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Labs/Lab 3 - Measurement of the Bandgap in Germanium/Band-Gap.xlsx
+++ b/Labs/Lab 3 - Measurement of the Bandgap in Germanium/Band-Gap.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204E6F35-A6A7-41F2-B7E3-E580374EECD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C0F8B-F612-4D29-ACAB-8242494403F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1785" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="e">Sheet1!$X$2</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>V</t>
   </si>
@@ -190,7 +191,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="##0.00E+0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +236,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +265,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -273,11 +301,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +409,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2008,16 +2125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>717098</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>110416</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>689882</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>16527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2442,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EY314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,27 +2588,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3104,11 +3221,11 @@
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -53401,4 +53518,102 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD55562-95D3-420F-B890-A7983C1E409E}">
+  <dimension ref="A2:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Labs/Lab 3 - Measurement of the Bandgap in Germanium/Band-Gap.xlsx
+++ b/Labs/Lab 3 - Measurement of the Bandgap in Germanium/Band-Gap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C0F8B-F612-4D29-ACAB-8242494403F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA119AAD-1144-4263-92C5-A1A993995AF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1785" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>V</t>
   </si>
@@ -180,6 +180,36 @@
   </si>
   <si>
     <t>G6 (W/S)</t>
+  </si>
+  <si>
+    <t>ln(p) +2%</t>
+  </si>
+  <si>
+    <t>ln(p) -2%</t>
+  </si>
+  <si>
+    <t>1/T + 2%</t>
+  </si>
+  <si>
+    <t>1/T -2%</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>gradient +2%</t>
+  </si>
+  <si>
+    <t>gradient -2%</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -367,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,9 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -439,6 +466,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,8 +677,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18492374013694615"/>
-          <c:y val="7.5006213282736836E-2"/>
+          <c:x val="0.15485902971805943"/>
+          <c:y val="9.9471212887379909E-2"/>
           <c:w val="0.70531343840320349"/>
           <c:h val="0.83030157141903327"/>
         </c:manualLayout>
@@ -712,6 +748,46 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$3:$G$35</c:f>
@@ -997,6 +1073,45 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$3:$G$35</c:f>
@@ -1565,7 +1680,1156 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>"+2%"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2.2565722667268421E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2823234052265209E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3086690522913541E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3356300362022656E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3632281696797826E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3914863087408826E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4204284158296022E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4500796275878966E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4804663276696021E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.511616225040814E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5435584382551188E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5763235862424324E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6099438862064468E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6444532592886424E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6798874447273215E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7162841233192994E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7536830510808208E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7921262041044259E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.831657935721365E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8723251472066642E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9141774734081308E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9572674848440043E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0016509079993999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0473868657626088E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0945381401825778E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1138097462245057E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1333228889237038E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1530821377896896E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1730921783277807E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1933578157432542E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2138839787883662E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2346757237586934E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.255738238645613E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>##0.00E+0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2.9302255302287779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9730886244750461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0826666405655008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1904535023285887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2881984465479008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4127344760761398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5302482880903248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6689109962040445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7817022572559233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9351938929429089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0727735684696329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2330516465498631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3692988345881165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5429948288086175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6734462799266776</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7649814787981102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9920157426912279</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1366278328590784</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2859916200724726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4115957307797826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5338944713259686</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9012321338006934</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.71443368197159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7736782413860981</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8102223596905249</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8165413356323672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8144392328281596</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8165413356323672</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8373340942933556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8186392384281733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8158411021952778</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8123036289547159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8059463946005749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C4B-4410-A40E-10AA9EEC4AC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="554486648"/>
+        <c:axId val="554488288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="554486648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554488288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="554488288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="##0.00E+0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554486648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"-2%"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2.2565722667268421E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2823234052265209E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3086690522913541E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3356300362022656E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3632281696797826E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3914863087408826E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4204284158296022E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4500796275878966E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4804663276696021E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.511616225040814E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5435584382551188E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5763235862424324E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6099438862064468E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6444532592886424E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6798874447273215E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7162841233192994E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7536830510808208E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7921262041044259E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.831657935721365E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8723251472066642E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9141774734081308E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9572674848440043E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0016509079993999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0473868657626088E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0945381401825778E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1138097462245057E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1333228889237038E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1530821377896896E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1730921783277807E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1933578157432542E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2138839787883662E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2346757237586934E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.255738238645613E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>##0.00E+0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2.6511564321117516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6899373269059939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7890793414640243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8866007878211035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9750366897338147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0877121450212694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1940341654150557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3194909013274683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4215401375172636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5604135221864412</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.684890371472525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8299038706879709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9531751360559149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1103286546363682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2283561580288982</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3111737189125749</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5165856719587296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6474251821105952</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.782563846732236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8962056611817077</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0068569026282574</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3392100258196749</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1702019027361992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2238041231588506</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2568678492438083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2625850179530929</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2606831154159535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2625850179530929</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.281397513884464</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.264483120482633</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2619514734147748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2587509023876002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.252999118924329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50FC-4A7E-AB6E-1BA4425998A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="554485664"/>
+        <c:axId val="554485336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="554485664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554485336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="554485336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="##0.00E+0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554485664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2121,20 +3385,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>689882</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>16527</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2156,6 +4452,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CF048F-86ED-4FBE-9929-26CD74C00051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542F0B5E-B273-442B-9118-3CBFC2250122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2559,13 +4927,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EY314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
@@ -2575,7 +4944,7 @@
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
@@ -2615,7 +4984,7 @@
       <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -2817,7 +5186,7 @@
       <c r="U2" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="14">
         <f>$U$2/$T$2</f>
         <v>0.25</v>
       </c>
@@ -2962,13 +5331,13 @@
       <c r="EY2" s="1"/>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C35" si="0">((($A3*10^3)/$B3)*((2*PI()*S)/(G7_*(W/S))))</f>
         <v>16.292273567526514</v>
       </c>
@@ -2992,7 +5361,7 @@
         <f t="shared" ref="I3:I35" si="1">nd_</f>
         <v>1000000000000000</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f>17600000000000000*$E3^1.5*EXP(-4550/$E3)</f>
         <v>5705083150407863</v>
       </c>
@@ -3157,13 +5526,13 @@
       <c r="EY3" s="1"/>
     </row>
     <row r="4" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>0.01</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>16.971118299506788</v>
       </c>
@@ -3187,7 +5556,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:J35" si="5">17600000000000000*$E4^1.5*EXP(-4550/$E4)</f>
         <v>4988670216234814</v>
       </c>
@@ -3361,13 +5730,13 @@
       <c r="EY4" s="1"/>
     </row>
     <row r="5" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>1.11E-2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>18.837941312452532</v>
       </c>
@@ -3391,7 +5760,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f t="shared" si="5"/>
         <v>4349586776249147.5</v>
       </c>
@@ -3569,13 +5938,13 @@
       <c r="EY5" s="1"/>
     </row>
     <row r="6" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>1.23E-2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>20.874475508393349</v>
       </c>
@@ -3599,7 +5968,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="5"/>
         <v>3781015557422718.5</v>
       </c>
@@ -3777,13 +6146,13 @@
       <c r="EY6" s="1"/>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>1.35E-2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>22.911009704334159</v>
       </c>
@@ -3807,7 +6176,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f t="shared" si="5"/>
         <v>3276582043531650.5</v>
       </c>
@@ -3985,13 +6354,13 @@
       <c r="EY7" s="1"/>
     </row>
     <row r="8" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>1.52E-2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>25.796099815250315</v>
       </c>
@@ -4015,7 +6384,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="5"/>
         <v>2830339097780824.5</v>
       </c>
@@ -4193,13 +6562,13 @@
       <c r="EY8" s="1"/>
     </row>
     <row r="9" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>28.850901109161541</v>
       </c>
@@ -4223,7 +6592,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" si="5"/>
         <v>2436751243973433.5</v>
       </c>
@@ -4257,13 +6626,13 @@
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="16">
+      <c r="T9" s="15">
         <v>0.25</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="15">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="15">
         <v>5.8650000000000002</v>
       </c>
       <c r="W9" s="1"/>
@@ -4401,13 +6770,13 @@
       <c r="EY9" s="1"/>
     </row>
     <row r="10" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>32.923969501043167</v>
       </c>
@@ -4431,7 +6800,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="5"/>
         <v>2090678652462137.8</v>
       </c>
@@ -4609,13 +6978,13 @@
       <c r="EY10" s="1"/>
     </row>
     <row r="11" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>36.657615526934663</v>
       </c>
@@ -4639,7 +7008,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="5"/>
         <v>1787360879387700.3</v>
       </c>
@@ -4817,13 +7186,13 @@
       <c r="EY11" s="1"/>
     </row>
     <row r="12" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>42.427795748766968</v>
       </c>
@@ -4847,7 +7216,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="5"/>
         <v>1522400409774994.8</v>
       </c>
@@ -5025,13 +7394,13 @@
       <c r="EY12" s="1"/>
     </row>
     <row r="13" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>48.367687153594346</v>
       </c>
@@ -5055,7 +7424,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="5"/>
         <v>1291746056880297.8</v>
       </c>
@@ -5233,13 +7602,13 @@
       <c r="EY13" s="1"/>
     </row>
     <row r="14" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>3.32E-2</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>56.344112754362534</v>
       </c>
@@ -5263,7 +7632,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="5"/>
         <v>1091676271737507.5</v>
       </c>
@@ -5441,13 +7810,13 @@
       <c r="EY14" s="1"/>
     </row>
     <row r="15" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>3.78E-2</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>64.150827172135649</v>
       </c>
@@ -5471,7 +7840,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="5"/>
         <v>918782418100168.63</v>
       </c>
@@ -5649,13 +8018,13 @@
       <c r="EY15" s="1"/>
     </row>
     <row r="16" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>75.691187615800274</v>
       </c>
@@ -5679,7 +8048,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f t="shared" si="5"/>
         <v>769952068890426</v>
       </c>
@@ -5857,13 +8226,13 @@
       <c r="EY16" s="1"/>
     </row>
     <row r="17" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>85.704147412509272</v>
       </c>
@@ -5887,7 +8256,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <f t="shared" si="5"/>
         <v>642352380813924.13</v>
       </c>
@@ -6065,13 +8434,13 @@
       <c r="EY17" s="1"/>
     </row>
     <row r="18" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>93.510861830282394</v>
       </c>
@@ -6095,7 +8464,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f t="shared" si="5"/>
         <v>533413603952459.44</v>
       </c>
@@ -6267,13 +8636,13 @@
       <c r="EY18" s="1"/>
     </row>
     <row r="19" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>116.08244916862644</v>
       </c>
@@ -6297,7 +8666,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f t="shared" si="5"/>
         <v>440812782877571.88</v>
       </c>
@@ -6469,13 +8838,13 @@
       <c r="EY19" s="1"/>
     </row>
     <row r="20" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>7.85E-2</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>133.22327865112828</v>
       </c>
@@ -6499,7 +8868,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <f t="shared" si="5"/>
         <v>362457705114642.94</v>
       </c>
@@ -6671,13 +9040,13 @@
       <c r="EY20" s="1"/>
     </row>
     <row r="21" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>153.58862061053642</v>
       </c>
@@ -6701,7 +9070,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <f t="shared" si="5"/>
         <v>296471151609173.13</v>
       </c>
@@ -6873,13 +9242,13 @@
       <c r="EY21" s="1"/>
     </row>
     <row r="22" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>0.10199999999999999</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>173.10540665496922</v>
       </c>
@@ -6903,7 +9272,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <f t="shared" si="5"/>
         <v>241175502190093.88</v>
       </c>
@@ -7075,13 +9444,13 @@
       <c r="EY22" s="1"/>
     </row>
     <row r="23" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>0.11459999999999999</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>194.48901571234779</v>
       </c>
@@ -7105,7 +9474,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <f t="shared" si="5"/>
         <v>195077746879854</v>
       </c>
@@ -7277,13 +9646,13 @@
       <c r="EY23" s="1"/>
     </row>
     <row r="24" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>0.16259999999999999</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>275.95038354998036</v>
       </c>
@@ -7307,7 +9676,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <f t="shared" si="5"/>
         <v>156854951264968.72</v>
       </c>
@@ -7479,13 +9848,13 @@
       <c r="EY24" s="1"/>
     </row>
     <row r="25" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>0.1361</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <f t="shared" si="0"/>
         <v>230.97692005628736</v>
       </c>
@@ -7509,7 +9878,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <f t="shared" si="5"/>
         <v>125340221017890.08</v>
       </c>
@@ -7681,13 +10050,13 @@
       <c r="EY25" s="1"/>
     </row>
     <row r="26" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>0.14399999999999999</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <f t="shared" si="0"/>
         <v>244.38410351289772</v>
       </c>
@@ -7711,7 +10080,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <f t="shared" si="5"/>
         <v>99509207063585.344</v>
       </c>
@@ -7883,13 +10252,13 @@
       <c r="EY26" s="1"/>
     </row>
     <row r="27" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>0.14910000000000001</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <f t="shared" si="0"/>
         <v>253.03937384564622</v>
       </c>
@@ -7913,7 +10282,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <f t="shared" si="5"/>
         <v>78467188832747.156</v>
       </c>
@@ -8085,13 +10454,13 @@
       <c r="EY27" s="1"/>
     </row>
     <row r="28" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>0.15</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <f t="shared" si="0"/>
         <v>254.56677449260181</v>
       </c>
@@ -8115,7 +10484,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <f t="shared" si="5"/>
         <v>71213491744506.109</v>
       </c>
@@ -8287,13 +10656,13 @@
       <c r="EY28" s="1"/>
     </row>
     <row r="29" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>0.1497</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <f t="shared" si="0"/>
         <v>254.05764094361658</v>
       </c>
@@ -8317,7 +10686,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <f t="shared" si="5"/>
         <v>64555599095761.703</v>
       </c>
@@ -8489,13 +10858,13 @@
       <c r="EY29" s="1"/>
     </row>
     <row r="30" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>0.15</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>254.56677449260181</v>
       </c>
@@ -8519,7 +10888,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <f t="shared" si="5"/>
         <v>58451229700689.844</v>
       </c>
@@ -8691,13 +11060,13 @@
       <c r="EY30" s="1"/>
     </row>
     <row r="31" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>0.153</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <f t="shared" si="0"/>
         <v>259.65810998245388</v>
       </c>
@@ -8721,7 +11090,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <f t="shared" si="5"/>
         <v>52860577995405.367</v>
       </c>
@@ -8893,13 +11262,13 @@
       <c r="EY31" s="1"/>
     </row>
     <row r="32" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>0.15029999999999999</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <f t="shared" si="0"/>
         <v>255.07590804158698</v>
       </c>
@@ -8923,7 +11292,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <f t="shared" si="5"/>
         <v>47746204786242.086</v>
       </c>
@@ -9095,13 +11464,13 @@
       <c r="EY32" s="1"/>
     </row>
     <row r="33" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>0.14990000000000001</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <f t="shared" si="0"/>
         <v>254.39706330960675</v>
       </c>
@@ -9125,7 +11494,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <f t="shared" si="5"/>
         <v>43072930797689.656</v>
       </c>
@@ -9297,13 +11666,13 @@
       <c r="EY33" s="1"/>
     </row>
     <row r="34" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>0.14910000000000001</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>5.0400000000000002E-3</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <f t="shared" si="0"/>
         <v>253.54143609533995</v>
       </c>
@@ -9327,7 +11696,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <f t="shared" si="5"/>
         <v>38807733040225.992</v>
       </c>
@@ -9499,13 +11868,13 @@
       <c r="EY34" s="1"/>
     </row>
     <row r="35" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>0.1482</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>5.0400000000000002E-3</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <f t="shared" si="0"/>
         <v>252.0110048915451</v>
       </c>
@@ -9529,7 +11898,7 @@
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <f t="shared" si="5"/>
         <v>34919644014491.195</v>
       </c>
@@ -9701,16 +12070,16 @@
       <c r="EY35" s="1"/>
     </row>
     <row r="36" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="13"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="4"/>
       <c r="M36" s="8"/>
@@ -9858,16 +12227,24 @@
       <c r="EY36" s="1"/>
     </row>
     <row r="37" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="13"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="8"/>
       <c r="L37" s="4"/>
       <c r="M37" s="8"/>
@@ -10015,16 +12392,28 @@
       <c r="EY37" s="1"/>
     </row>
     <row r="38" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="8"/>
+      <c r="A38" s="11">
+        <f>F3*1.05</f>
+        <v>2.9302255302287779</v>
+      </c>
+      <c r="B38" s="11">
+        <f>F3*0.95</f>
+        <v>2.6511564321117516</v>
+      </c>
+      <c r="C38" s="10">
+        <f>G3*1</f>
+        <v>2.2565722667268421E-3</v>
+      </c>
+      <c r="D38" s="8">
+        <f>G3</f>
+        <v>2.2565722667268421E-3</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="13"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="4"/>
       <c r="M38" s="8"/>
@@ -10172,16 +12561,28 @@
       <c r="EY38" s="1"/>
     </row>
     <row r="39" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="8"/>
+      <c r="A39" s="11">
+        <f t="shared" ref="A39:A70" si="13">F4*1.05</f>
+        <v>2.9730886244750461</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" ref="B39:B70" si="14">F4*0.95</f>
+        <v>2.6899373269059939</v>
+      </c>
+      <c r="C39" s="10">
+        <f t="shared" ref="C39:C70" si="15">G4*1</f>
+        <v>2.2823234052265209E-3</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" ref="D39:D70" si="16">G4</f>
+        <v>2.2823234052265209E-3</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="13"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="8"/>
       <c r="L39" s="4"/>
       <c r="M39" s="8"/>
@@ -10329,10 +12730,22 @@
       <c r="EY39" s="1"/>
     </row>
     <row r="40" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="8"/>
+      <c r="A40" s="11">
+        <f t="shared" si="13"/>
+        <v>3.0826666405655008</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="14"/>
+        <v>2.7890793414640243</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" si="15"/>
+        <v>2.3086690522913541E-3</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="16"/>
+        <v>2.3086690522913541E-3</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -10486,10 +12899,22 @@
       <c r="EY40" s="1"/>
     </row>
     <row r="41" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="11">
+        <f t="shared" si="13"/>
+        <v>3.1904535023285887</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="shared" si="14"/>
+        <v>2.8866007878211035</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" si="15"/>
+        <v>2.3356300362022656E-3</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" si="16"/>
+        <v>2.3356300362022656E-3</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -10643,10 +13068,22 @@
       <c r="EY41" s="1"/>
     </row>
     <row r="42" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="11">
+        <f t="shared" si="13"/>
+        <v>3.2881984465479008</v>
+      </c>
+      <c r="B42" s="11">
+        <f t="shared" si="14"/>
+        <v>2.9750366897338147</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" si="15"/>
+        <v>2.3632281696797826E-3</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="16"/>
+        <v>2.3632281696797826E-3</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -10656,10 +13093,18 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -10800,10 +13245,22 @@
       <c r="EY42" s="1"/>
     </row>
     <row r="43" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="11">
+        <f t="shared" si="13"/>
+        <v>3.4127344760761398</v>
+      </c>
+      <c r="B43" s="11">
+        <f t="shared" si="14"/>
+        <v>3.0877121450212694</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" si="15"/>
+        <v>2.3914863087408826E-3</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="16"/>
+        <v>2.3914863087408826E-3</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -10813,10 +13270,22 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="N43" s="1">
+        <f>6.6326*10^-34</f>
+        <v>6.6326000000000014E-34</v>
+      </c>
+      <c r="O43" s="1">
+        <f>1.38*10^-23</f>
+        <v>1.3800000000000001E-23</v>
+      </c>
+      <c r="P43" s="1">
+        <f>9.11*10^-31</f>
+        <v>9.1100000000000003E-31</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>1.602*10^-19</f>
+        <v>1.602E-19</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -10957,10 +13426,22 @@
       <c r="EY43" s="1"/>
     </row>
     <row r="44" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="11">
+        <f t="shared" si="13"/>
+        <v>3.5302482880903248</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" si="14"/>
+        <v>3.1940341654150557</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" si="15"/>
+        <v>2.4204284158296022E-3</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="16"/>
+        <v>2.4204284158296022E-3</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -11114,10 +13595,22 @@
       <c r="EY44" s="1"/>
     </row>
     <row r="45" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="11">
+        <f t="shared" si="13"/>
+        <v>3.6689109962040445</v>
+      </c>
+      <c r="B45" s="11">
+        <f t="shared" si="14"/>
+        <v>3.3194909013274683</v>
+      </c>
+      <c r="C45" s="10">
+        <f t="shared" si="15"/>
+        <v>2.4500796275878966E-3</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="16"/>
+        <v>2.4500796275878966E-3</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -11127,8 +13620,12 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -11271,10 +13768,22 @@
       <c r="EY45" s="1"/>
     </row>
     <row r="46" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="11">
+        <f t="shared" si="13"/>
+        <v>3.7817022572559233</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="14"/>
+        <v>3.4215401375172636</v>
+      </c>
+      <c r="C46" s="10">
+        <f t="shared" si="15"/>
+        <v>2.4804663276696021E-3</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="16"/>
+        <v>2.4804663276696021E-3</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -11284,8 +13793,14 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="N46" s="1">
+        <f>3148.7*(2*O43)/Q43</f>
+        <v>0.54247265917602994</v>
+      </c>
+      <c r="O46" s="1">
+        <f>2848.8*(2*O43)/Q43</f>
+        <v>0.49080449438202256</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -11428,10 +13943,22 @@
       <c r="EY46" s="1"/>
     </row>
     <row r="47" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="11">
+        <f t="shared" si="13"/>
+        <v>3.9351938929429089</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" si="14"/>
+        <v>3.5604135221864412</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" si="15"/>
+        <v>2.511616225040814E-3</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="16"/>
+        <v>2.511616225040814E-3</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -11439,10 +13966,17 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="1">
+        <f>ABS(0.516-N46)</f>
+        <v>2.6472659176029922E-2</v>
+      </c>
+      <c r="O47" s="1">
+        <f>ABS(0.516-O46)</f>
+        <v>2.5195505617977454E-2</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -11585,10 +14119,22 @@
       <c r="EY47" s="1"/>
     </row>
     <row r="48" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="11">
+        <f t="shared" si="13"/>
+        <v>4.0727735684696329</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" si="14"/>
+        <v>3.684890371472525</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="15"/>
+        <v>2.5435584382551188E-3</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="16"/>
+        <v>2.5435584382551188E-3</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -11742,10 +14288,22 @@
       <c r="EY48" s="1"/>
     </row>
     <row r="49" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="11">
+        <f t="shared" si="13"/>
+        <v>4.2330516465498631</v>
+      </c>
+      <c r="B49" s="11">
+        <f t="shared" si="14"/>
+        <v>3.8299038706879709</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" si="15"/>
+        <v>2.5763235862424324E-3</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="16"/>
+        <v>2.5763235862424324E-3</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -11899,10 +14457,22 @@
       <c r="EY49" s="1"/>
     </row>
     <row r="50" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="11">
+        <f t="shared" si="13"/>
+        <v>4.3692988345881165</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="14"/>
+        <v>3.9531751360559149</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" si="15"/>
+        <v>2.6099438862064468E-3</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="16"/>
+        <v>2.6099438862064468E-3</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -12056,10 +14626,22 @@
       <c r="EY50" s="1"/>
     </row>
     <row r="51" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="11">
+        <f t="shared" si="13"/>
+        <v>4.5429948288086175</v>
+      </c>
+      <c r="B51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.1103286546363682</v>
+      </c>
+      <c r="C51" s="10">
+        <f t="shared" si="15"/>
+        <v>2.6444532592886424E-3</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="16"/>
+        <v>2.6444532592886424E-3</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -12213,10 +14795,22 @@
       <c r="EY51" s="1"/>
     </row>
     <row r="52" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="11">
+        <f t="shared" si="13"/>
+        <v>4.6734462799266776</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="14"/>
+        <v>4.2283561580288982</v>
+      </c>
+      <c r="C52" s="10">
+        <f t="shared" si="15"/>
+        <v>2.6798874447273215E-3</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="16"/>
+        <v>2.6798874447273215E-3</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -12370,10 +14964,22 @@
       <c r="EY52" s="1"/>
     </row>
     <row r="53" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="11">
+        <f t="shared" si="13"/>
+        <v>4.7649814787981102</v>
+      </c>
+      <c r="B53" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3111737189125749</v>
+      </c>
+      <c r="C53" s="10">
+        <f t="shared" si="15"/>
+        <v>2.7162841233192994E-3</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="16"/>
+        <v>2.7162841233192994E-3</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -12527,10 +15133,22 @@
       <c r="EY53" s="1"/>
     </row>
     <row r="54" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="11">
+        <f t="shared" si="13"/>
+        <v>4.9920157426912279</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="14"/>
+        <v>4.5165856719587296</v>
+      </c>
+      <c r="C54" s="10">
+        <f t="shared" si="15"/>
+        <v>2.7536830510808208E-3</v>
+      </c>
+      <c r="D54" s="25">
+        <f t="shared" si="16"/>
+        <v>2.7536830510808208E-3</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -12684,10 +15302,22 @@
       <c r="EY54" s="1"/>
     </row>
     <row r="55" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" s="11">
+        <f t="shared" si="13"/>
+        <v>5.1366278328590784</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" si="14"/>
+        <v>4.6474251821105952</v>
+      </c>
+      <c r="C55" s="10">
+        <f t="shared" si="15"/>
+        <v>2.7921262041044259E-3</v>
+      </c>
+      <c r="D55" s="25">
+        <f t="shared" si="16"/>
+        <v>2.7921262041044259E-3</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -12841,10 +15471,22 @@
       <c r="EY55" s="1"/>
     </row>
     <row r="56" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="11">
+        <f t="shared" si="13"/>
+        <v>5.2859916200724726</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" si="14"/>
+        <v>4.782563846732236</v>
+      </c>
+      <c r="C56" s="10">
+        <f t="shared" si="15"/>
+        <v>2.831657935721365E-3</v>
+      </c>
+      <c r="D56" s="25">
+        <f t="shared" si="16"/>
+        <v>2.831657935721365E-3</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -12998,10 +15640,22 @@
       <c r="EY56" s="1"/>
     </row>
     <row r="57" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="11">
+        <f t="shared" si="13"/>
+        <v>5.4115957307797826</v>
+      </c>
+      <c r="B57" s="11">
+        <f t="shared" si="14"/>
+        <v>4.8962056611817077</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="15"/>
+        <v>2.8723251472066642E-3</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="16"/>
+        <v>2.8723251472066642E-3</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -13155,10 +15809,22 @@
       <c r="EY57" s="1"/>
     </row>
     <row r="58" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="11">
+        <f t="shared" si="13"/>
+        <v>5.5338944713259686</v>
+      </c>
+      <c r="B58" s="11">
+        <f t="shared" si="14"/>
+        <v>5.0068569026282574</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="15"/>
+        <v>2.9141774734081308E-3</v>
+      </c>
+      <c r="D58" s="25">
+        <f t="shared" si="16"/>
+        <v>2.9141774734081308E-3</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -13312,10 +15978,22 @@
       <c r="EY58" s="1"/>
     </row>
     <row r="59" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="11">
+        <f t="shared" si="13"/>
+        <v>5.9012321338006934</v>
+      </c>
+      <c r="B59" s="11">
+        <f t="shared" si="14"/>
+        <v>5.3392100258196749</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="15"/>
+        <v>2.9572674848440043E-3</v>
+      </c>
+      <c r="D59" s="25">
+        <f t="shared" si="16"/>
+        <v>2.9572674848440043E-3</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -13469,10 +16147,22 @@
       <c r="EY59" s="1"/>
     </row>
     <row r="60" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="11">
+        <f t="shared" si="13"/>
+        <v>5.71443368197159</v>
+      </c>
+      <c r="B60" s="11">
+        <f t="shared" si="14"/>
+        <v>5.1702019027361992</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="15"/>
+        <v>3.0016509079993999E-3</v>
+      </c>
+      <c r="D60" s="25">
+        <f t="shared" si="16"/>
+        <v>3.0016509079993999E-3</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -13626,10 +16316,22 @@
       <c r="EY60" s="1"/>
     </row>
     <row r="61" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="11">
+        <f t="shared" si="13"/>
+        <v>5.7736782413860981</v>
+      </c>
+      <c r="B61" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2238041231588506</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" si="15"/>
+        <v>3.0473868657626088E-3</v>
+      </c>
+      <c r="D61" s="25">
+        <f t="shared" si="16"/>
+        <v>3.0473868657626088E-3</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -13783,10 +16485,22 @@
       <c r="EY61" s="1"/>
     </row>
     <row r="62" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8102223596905249</v>
+      </c>
+      <c r="B62" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2568678492438083</v>
+      </c>
+      <c r="C62" s="10">
+        <f t="shared" si="15"/>
+        <v>3.0945381401825778E-3</v>
+      </c>
+      <c r="D62" s="25">
+        <f t="shared" si="16"/>
+        <v>3.0945381401825778E-3</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -13940,10 +16654,22 @@
       <c r="EY62" s="1"/>
     </row>
     <row r="63" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8165413356323672</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2625850179530929</v>
+      </c>
+      <c r="C63" s="10">
+        <f t="shared" si="15"/>
+        <v>3.1138097462245057E-3</v>
+      </c>
+      <c r="D63" s="25">
+        <f t="shared" si="16"/>
+        <v>3.1138097462245057E-3</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -14097,10 +16823,22 @@
       <c r="EY63" s="1"/>
     </row>
     <row r="64" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8144392328281596</v>
+      </c>
+      <c r="B64" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2606831154159535</v>
+      </c>
+      <c r="C64" s="10">
+        <f t="shared" si="15"/>
+        <v>3.1333228889237038E-3</v>
+      </c>
+      <c r="D64" s="25">
+        <f t="shared" si="16"/>
+        <v>3.1333228889237038E-3</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -14254,10 +16992,22 @@
       <c r="EY64" s="1"/>
     </row>
     <row r="65" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8165413356323672</v>
+      </c>
+      <c r="B65" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2625850179530929</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" si="15"/>
+        <v>3.1530821377896896E-3</v>
+      </c>
+      <c r="D65" s="25">
+        <f t="shared" si="16"/>
+        <v>3.1530821377896896E-3</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -14411,10 +17161,22 @@
       <c r="EY65" s="1"/>
     </row>
     <row r="66" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8373340942933556</v>
+      </c>
+      <c r="B66" s="11">
+        <f t="shared" si="14"/>
+        <v>5.281397513884464</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" si="15"/>
+        <v>3.1730921783277807E-3</v>
+      </c>
+      <c r="D66" s="25">
+        <f t="shared" si="16"/>
+        <v>3.1730921783277807E-3</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -14568,10 +17330,22 @@
       <c r="EY66" s="1"/>
     </row>
     <row r="67" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8186392384281733</v>
+      </c>
+      <c r="B67" s="11">
+        <f t="shared" si="14"/>
+        <v>5.264483120482633</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="15"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
+      <c r="D67" s="25">
+        <f t="shared" si="16"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -14725,10 +17499,22 @@
       <c r="EY67" s="1"/>
     </row>
     <row r="68" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="A68" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8158411021952778</v>
+      </c>
+      <c r="B68" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2619514734147748</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="15"/>
+        <v>3.2138839787883662E-3</v>
+      </c>
+      <c r="D68" s="25">
+        <f t="shared" si="16"/>
+        <v>3.2138839787883662E-3</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -14882,10 +17668,22 @@
       <c r="EY68" s="1"/>
     </row>
     <row r="69" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8123036289547159</v>
+      </c>
+      <c r="B69" s="11">
+        <f t="shared" si="14"/>
+        <v>5.2587509023876002</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="15"/>
+        <v>3.2346757237586934E-3</v>
+      </c>
+      <c r="D69" s="25">
+        <f t="shared" si="16"/>
+        <v>3.2346757237586934E-3</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -15039,10 +17837,22 @@
       <c r="EY69" s="1"/>
     </row>
     <row r="70" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8059463946005749</v>
+      </c>
+      <c r="B70" s="11">
+        <f t="shared" si="14"/>
+        <v>5.252999118924329</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="15"/>
+        <v>3.255738238645613E-3</v>
+      </c>
+      <c r="D70" s="25">
+        <f t="shared" si="16"/>
+        <v>3.255738238645613E-3</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -15196,7 +18006,7 @@
       <c r="EY70" s="1"/>
     </row>
     <row r="71" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -15353,7 +18163,7 @@
       <c r="EY71" s="1"/>
     </row>
     <row r="72" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -15510,7 +18320,7 @@
       <c r="EY72" s="1"/>
     </row>
     <row r="73" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -15667,7 +18477,7 @@
       <c r="EY73" s="1"/>
     </row>
     <row r="74" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -15824,7 +18634,7 @@
       <c r="EY74" s="1"/>
     </row>
     <row r="75" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -15981,7 +18791,7 @@
       <c r="EY75" s="1"/>
     </row>
     <row r="76" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -16138,7 +18948,7 @@
       <c r="EY76" s="1"/>
     </row>
     <row r="77" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -16295,7 +19105,7 @@
       <c r="EY77" s="1"/>
     </row>
     <row r="78" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -16452,7 +19262,7 @@
       <c r="EY78" s="1"/>
     </row>
     <row r="79" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -53534,82 +56344,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
     </row>
